--- a/image/claim.xlsx
+++ b/image/claim.xlsx
@@ -2170,44 +2170,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.86328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="46.42578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.12890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="47.5078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.37109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.99609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.30859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.02734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/claim.xlsx
+++ b/image/claim.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5152" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5152" uniqueCount="653">
   <si>
     <t>Path</t>
   </si>
@@ -172,7 +172,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -670,10 +670,6 @@
   </si>
   <si>
     <t>Claim.related.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2170,44 +2166,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.12890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="47.5078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="46.42578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.02734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="120.64453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.37109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.99609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4849,13 +4845,13 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4906,33 +4902,33 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4961,7 +4957,7 @@
         <v>96</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>98</v>
@@ -5014,7 +5010,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -5035,16 +5031,16 @@
         <v>42</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5066,10 +5062,10 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>98</v>
@@ -5124,7 +5120,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -5150,7 +5146,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5173,13 +5169,13 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
@@ -5232,7 +5228,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -5247,7 +5243,7 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>42</v>
@@ -5258,7 +5254,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5284,16 +5280,16 @@
         <v>124</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -5321,11 +5317,11 @@
         <v>138</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
       </c>
@@ -5342,7 +5338,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -5368,7 +5364,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5394,16 +5390,16 @@
         <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -5452,7 +5448,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -5478,7 +5474,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5501,17 +5497,17 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -5560,7 +5556,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -5586,7 +5582,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5609,19 +5605,19 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -5670,7 +5666,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -5696,7 +5692,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5722,16 +5718,16 @@
         <v>204</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -5780,7 +5776,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -5806,7 +5802,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5829,13 +5825,13 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5886,33 +5882,33 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5941,7 +5937,7 @@
         <v>96</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>98</v>
@@ -5994,7 +5990,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -6015,16 +6011,16 @@
         <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6046,10 +6042,10 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>98</v>
@@ -6104,7 +6100,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -6130,7 +6126,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6156,14 +6152,14 @@
         <v>124</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -6191,11 +6187,11 @@
         <v>138</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
       </c>
@@ -6212,7 +6208,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>50</v>
@@ -6238,7 +6234,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6261,19 +6257,19 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -6322,7 +6318,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -6348,7 +6344,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6371,19 +6367,19 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -6432,7 +6428,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -6450,7 +6446,7 @@
         <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -6458,7 +6454,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6481,17 +6477,17 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -6540,7 +6536,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -6558,7 +6554,7 @@
         <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -6566,7 +6562,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6592,14 +6588,14 @@
         <v>204</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -6648,7 +6644,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -6674,7 +6670,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6697,13 +6693,13 @@
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6754,33 +6750,33 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6809,7 +6805,7 @@
         <v>96</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>98</v>
@@ -6862,7 +6858,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6883,16 +6879,16 @@
         <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6914,10 +6910,10 @@
         <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>98</v>
@@ -6972,7 +6968,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6998,7 +6994,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7021,17 +7017,17 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -7080,7 +7076,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>50</v>
@@ -7106,7 +7102,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7132,14 +7128,14 @@
         <v>181</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -7188,7 +7184,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>50</v>
@@ -7206,7 +7202,7 @@
         <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -7214,7 +7210,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7237,19 +7233,19 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -7298,7 +7294,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -7324,7 +7320,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7350,16 +7346,16 @@
         <v>124</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -7387,11 +7383,11 @@
         <v>138</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>42</v>
       </c>
@@ -7408,7 +7404,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -7434,7 +7430,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7460,14 +7456,14 @@
         <v>124</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7495,11 +7491,11 @@
         <v>138</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
       </c>
@@ -7516,7 +7512,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -7542,11 +7538,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7568,16 +7564,16 @@
         <v>204</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -7626,7 +7622,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -7641,7 +7637,7 @@
         <v>209</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>42</v>
@@ -7652,7 +7648,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7675,13 +7671,13 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7732,33 +7728,33 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7787,7 +7783,7 @@
         <v>96</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>98</v>
@@ -7840,7 +7836,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7861,16 +7857,16 @@
         <v>42</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7892,10 +7888,10 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>98</v>
@@ -7950,7 +7946,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7976,7 +7972,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7999,17 +7995,17 @@
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -8058,7 +8054,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>50</v>
@@ -8084,7 +8080,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8110,16 +8106,16 @@
         <v>124</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -8147,11 +8143,11 @@
         <v>138</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>42</v>
       </c>
@@ -8168,7 +8164,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>50</v>
@@ -8194,7 +8190,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8220,14 +8216,14 @@
         <v>124</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -8255,11 +8251,11 @@
         <v>138</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>42</v>
       </c>
@@ -8276,7 +8272,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -8302,7 +8298,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8325,13 +8321,13 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8382,7 +8378,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -8408,7 +8404,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8431,19 +8427,19 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -8492,7 +8488,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -8518,7 +8514,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8544,16 +8540,16 @@
         <v>124</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -8581,11 +8577,11 @@
         <v>138</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
       </c>
@@ -8602,7 +8598,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -8628,7 +8624,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8654,14 +8650,14 @@
         <v>204</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -8710,7 +8706,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8725,7 +8721,7 @@
         <v>209</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>42</v>
@@ -8736,7 +8732,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8759,13 +8755,13 @@
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8816,33 +8812,33 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8871,7 +8867,7 @@
         <v>96</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>98</v>
@@ -8924,7 +8920,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8945,16 +8941,16 @@
         <v>42</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8976,10 +8972,10 @@
         <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>98</v>
@@ -9034,7 +9030,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -9060,7 +9056,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9083,19 +9079,19 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -9144,7 +9140,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>50</v>
@@ -9170,7 +9166,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9193,17 +9189,17 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -9231,11 +9227,11 @@
         <v>138</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
       </c>
@@ -9252,7 +9248,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>50</v>
@@ -9278,7 +9274,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9304,16 +9300,16 @@
         <v>124</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -9341,11 +9337,11 @@
         <v>138</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="Y66" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="Z66" t="s" s="2">
         <v>42</v>
       </c>
@@ -9362,7 +9358,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -9388,7 +9384,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9414,14 +9410,14 @@
         <v>124</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -9449,11 +9445,11 @@
         <v>138</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>42</v>
       </c>
@@ -9470,7 +9466,7 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -9496,7 +9492,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9522,16 +9518,16 @@
         <v>124</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -9559,11 +9555,11 @@
         <v>138</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="Y68" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="Z68" t="s" s="2">
         <v>42</v>
       </c>
@@ -9580,7 +9576,7 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -9606,7 +9602,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9632,14 +9628,14 @@
         <v>204</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -9688,7 +9684,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9714,7 +9710,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9737,13 +9733,13 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9794,33 +9790,33 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9849,7 +9845,7 @@
         <v>96</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>98</v>
@@ -9902,7 +9898,7 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9923,16 +9919,16 @@
         <v>42</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9954,10 +9950,10 @@
         <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>98</v>
@@ -10012,7 +10008,7 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -10038,7 +10034,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10061,17 +10057,17 @@
         <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
@@ -10120,7 +10116,7 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>50</v>
@@ -10146,7 +10142,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10172,16 +10168,16 @@
         <v>124</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="N74" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>42</v>
@@ -10209,11 +10205,11 @@
         <v>138</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>419</v>
-      </c>
       <c r="Z74" t="s" s="2">
         <v>42</v>
       </c>
@@ -10230,7 +10226,7 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
@@ -10256,7 +10252,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10282,14 +10278,14 @@
         <v>162</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>42</v>
@@ -10338,7 +10334,7 @@
         <v>42</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -10364,7 +10360,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10387,17 +10383,17 @@
         <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>42</v>
@@ -10425,11 +10421,11 @@
         <v>138</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>42</v>
       </c>
@@ -10446,7 +10442,7 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>50</v>
@@ -10472,7 +10468,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10495,17 +10491,17 @@
         <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -10554,7 +10550,7 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -10580,7 +10576,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10606,16 +10602,16 @@
         <v>204</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -10664,7 +10660,7 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>50</v>
@@ -10685,12 +10681,12 @@
         <v>42</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10713,13 +10709,13 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10770,33 +10766,33 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10825,7 +10821,7 @@
         <v>96</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>98</v>
@@ -10878,7 +10874,7 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -10899,16 +10895,16 @@
         <v>42</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10930,10 +10926,10 @@
         <v>95</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>98</v>
@@ -10988,7 +10984,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -11014,7 +11010,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11037,17 +11033,17 @@
         <v>51</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -11096,7 +11092,7 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>50</v>
@@ -11122,7 +11118,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11145,19 +11141,19 @@
         <v>51</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
@@ -11206,7 +11202,7 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>50</v>
@@ -11232,7 +11228,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11258,16 +11254,16 @@
         <v>107</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -11316,7 +11312,7 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -11342,7 +11338,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11365,17 +11361,17 @@
         <v>51</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -11424,7 +11420,7 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>50</v>
@@ -11450,7 +11446,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11473,17 +11469,17 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>42</v>
@@ -11532,7 +11528,7 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -11558,7 +11554,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11581,19 +11577,19 @@
         <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>42</v>
@@ -11642,7 +11638,7 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -11668,7 +11664,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11691,19 +11687,19 @@
         <v>42</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>42</v>
@@ -11752,7 +11748,7 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -11778,7 +11774,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11804,14 +11800,14 @@
         <v>204</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>42</v>
@@ -11860,7 +11856,7 @@
         <v>42</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
@@ -11886,7 +11882,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11909,13 +11905,13 @@
         <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11966,33 +11962,33 @@
         <v>42</v>
       </c>
       <c r="AE90" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12021,7 +12017,7 @@
         <v>96</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>98</v>
@@ -12074,7 +12070,7 @@
         <v>42</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -12095,16 +12091,16 @@
         <v>42</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12126,10 +12122,10 @@
         <v>95</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>98</v>
@@ -12184,7 +12180,7 @@
         <v>42</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -12210,7 +12206,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12233,19 +12229,19 @@
         <v>42</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>42</v>
@@ -12294,7 +12290,7 @@
         <v>42</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>50</v>
@@ -12320,7 +12316,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12346,14 +12342,14 @@
         <v>124</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>42</v>
@@ -12381,11 +12377,11 @@
         <v>129</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Y94" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="Z94" t="s" s="2">
         <v>42</v>
       </c>
@@ -12402,7 +12398,7 @@
         <v>42</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -12428,7 +12424,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12451,17 +12447,17 @@
         <v>42</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>42</v>
@@ -12510,7 +12506,7 @@
         <v>42</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
@@ -12536,7 +12532,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12562,14 +12558,14 @@
         <v>204</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>42</v>
@@ -12618,7 +12614,7 @@
         <v>42</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12644,7 +12640,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12667,13 +12663,13 @@
         <v>42</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="L97" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12724,33 +12720,33 @@
         <v>42</v>
       </c>
       <c r="AE97" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL97" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12779,7 +12775,7 @@
         <v>96</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>98</v>
@@ -12832,7 +12828,7 @@
         <v>42</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>40</v>
@@ -12853,16 +12849,16 @@
         <v>42</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12884,10 +12880,10 @@
         <v>95</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>98</v>
@@ -12942,7 +12938,7 @@
         <v>42</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -12968,7 +12964,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12991,17 +12987,17 @@
         <v>42</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>42</v>
@@ -13050,7 +13046,7 @@
         <v>42</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>50</v>
@@ -13076,7 +13072,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13099,17 +13095,17 @@
         <v>42</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>42</v>
@@ -13158,7 +13154,7 @@
         <v>42</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -13184,7 +13180,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13207,17 +13203,17 @@
         <v>42</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>42</v>
@@ -13266,7 +13262,7 @@
         <v>42</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -13292,7 +13288,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13315,17 +13311,17 @@
         <v>42</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>42</v>
@@ -13374,7 +13370,7 @@
         <v>42</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
@@ -13400,7 +13396,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13423,17 +13419,17 @@
         <v>42</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>42</v>
@@ -13482,7 +13478,7 @@
         <v>42</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
@@ -13508,7 +13504,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13534,14 +13530,14 @@
         <v>124</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>42</v>
@@ -13569,11 +13565,11 @@
         <v>138</v>
       </c>
       <c r="X105" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Y105" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Y105" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="Z105" t="s" s="2">
         <v>42</v>
       </c>
@@ -13590,7 +13586,7 @@
         <v>42</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
@@ -13616,7 +13612,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13642,16 +13638,16 @@
         <v>124</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>42</v>
@@ -13679,11 +13675,11 @@
         <v>138</v>
       </c>
       <c r="X106" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Y106" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Y106" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="Z106" t="s" s="2">
         <v>42</v>
       </c>
@@ -13700,7 +13696,7 @@
         <v>42</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
@@ -13726,11 +13722,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13752,16 +13748,16 @@
         <v>124</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>42</v>
@@ -13789,11 +13785,11 @@
         <v>138</v>
       </c>
       <c r="X107" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Y107" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="Y107" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="Z107" t="s" s="2">
         <v>42</v>
       </c>
@@ -13810,7 +13806,7 @@
         <v>42</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>50</v>
@@ -13836,7 +13832,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13862,16 +13858,16 @@
         <v>124</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>42</v>
@@ -13899,11 +13895,11 @@
         <v>138</v>
       </c>
       <c r="X108" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Y108" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="Y108" t="s" s="2">
-        <v>557</v>
-      </c>
       <c r="Z108" t="s" s="2">
         <v>42</v>
       </c>
@@ -13920,7 +13916,7 @@
         <v>42</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
@@ -13946,7 +13942,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13972,16 +13968,16 @@
         <v>124</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>42</v>
@@ -14009,11 +14005,11 @@
         <v>138</v>
       </c>
       <c r="X109" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="Y109" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="Y109" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="Z109" t="s" s="2">
         <v>42</v>
       </c>
@@ -14030,7 +14026,7 @@
         <v>42</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
@@ -14056,7 +14052,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14079,17 +14075,17 @@
         <v>42</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>42</v>
@@ -14138,7 +14134,7 @@
         <v>42</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -14164,7 +14160,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14187,17 +14183,17 @@
         <v>42</v>
       </c>
       <c r="J111" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="K111" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="K111" t="s" s="2">
+      <c r="L111" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>42</v>
@@ -14225,11 +14221,11 @@
         <v>138</v>
       </c>
       <c r="X111" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Y111" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Y111" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="Z111" t="s" s="2">
         <v>42</v>
       </c>
@@ -14246,7 +14242,7 @@
         <v>42</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -14264,7 +14260,7 @@
         <v>42</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>42</v>
@@ -14272,7 +14268,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14295,17 +14291,17 @@
         <v>42</v>
       </c>
       <c r="J112" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="K112" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="K112" t="s" s="2">
+      <c r="L112" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>42</v>
@@ -14354,7 +14350,7 @@
         <v>42</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
@@ -14380,7 +14376,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14403,17 +14399,17 @@
         <v>42</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>42</v>
@@ -14462,7 +14458,7 @@
         <v>42</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>40</v>
@@ -14488,7 +14484,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14511,19 +14507,19 @@
         <v>42</v>
       </c>
       <c r="J114" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="K114" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="K114" t="s" s="2">
+      <c r="L114" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>42</v>
@@ -14572,7 +14568,7 @@
         <v>42</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>40</v>
@@ -14598,7 +14594,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14621,19 +14617,19 @@
         <v>42</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>42</v>
@@ -14682,7 +14678,7 @@
         <v>42</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
@@ -14708,7 +14704,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14731,17 +14727,17 @@
         <v>42</v>
       </c>
       <c r="J116" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K116" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="K116" t="s" s="2">
+      <c r="L116" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>42</v>
@@ -14790,7 +14786,7 @@
         <v>42</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>40</v>
@@ -14816,7 +14812,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14842,16 +14838,16 @@
         <v>124</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>42</v>
@@ -14879,11 +14875,11 @@
         <v>138</v>
       </c>
       <c r="X117" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="Y117" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="Y117" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="Z117" t="s" s="2">
         <v>42</v>
       </c>
@@ -14900,7 +14896,7 @@
         <v>42</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -14926,7 +14922,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14952,14 +14948,14 @@
         <v>124</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>42</v>
@@ -14987,11 +14983,11 @@
         <v>138</v>
       </c>
       <c r="X118" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="Y118" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="Y118" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="Z118" t="s" s="2">
         <v>42</v>
       </c>
@@ -15008,7 +15004,7 @@
         <v>42</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -15034,7 +15030,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15057,19 +15053,19 @@
         <v>42</v>
       </c>
       <c r="J119" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="K119" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="K119" t="s" s="2">
+      <c r="L119" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>42</v>
@@ -15118,7 +15114,7 @@
         <v>42</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -15133,7 +15129,7 @@
         <v>42</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>42</v>
@@ -15144,7 +15140,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15170,14 +15166,14 @@
         <v>204</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>42</v>
@@ -15226,7 +15222,7 @@
         <v>42</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
@@ -15252,7 +15248,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15275,13 +15271,13 @@
         <v>42</v>
       </c>
       <c r="J121" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K121" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K121" t="s" s="2">
+      <c r="L121" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15332,33 +15328,33 @@
         <v>42</v>
       </c>
       <c r="AE121" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL121" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15387,7 +15383,7 @@
         <v>96</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>98</v>
@@ -15440,7 +15436,7 @@
         <v>42</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
@@ -15461,16 +15457,16 @@
         <v>42</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15492,10 +15488,10 @@
         <v>95</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>98</v>
@@ -15550,7 +15546,7 @@
         <v>42</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
@@ -15576,7 +15572,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15599,17 +15595,17 @@
         <v>42</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>42</v>
@@ -15658,7 +15654,7 @@
         <v>42</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>50</v>
@@ -15684,7 +15680,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15710,14 +15706,14 @@
         <v>124</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>42</v>
@@ -15745,11 +15741,11 @@
         <v>138</v>
       </c>
       <c r="X125" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Y125" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Y125" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="Z125" t="s" s="2">
         <v>42</v>
       </c>
@@ -15766,7 +15762,7 @@
         <v>42</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>40</v>
@@ -15792,7 +15788,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15818,16 +15814,16 @@
         <v>124</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>42</v>
@@ -15855,11 +15851,11 @@
         <v>138</v>
       </c>
       <c r="X126" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Y126" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Y126" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="Z126" t="s" s="2">
         <v>42</v>
       </c>
@@ -15876,7 +15872,7 @@
         <v>42</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>40</v>
@@ -15902,11 +15898,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -15928,16 +15924,16 @@
         <v>124</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>42</v>
@@ -15965,11 +15961,11 @@
         <v>138</v>
       </c>
       <c r="X127" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Y127" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="Y127" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="Z127" t="s" s="2">
         <v>42</v>
       </c>
@@ -15986,7 +15982,7 @@
         <v>42</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>50</v>
@@ -16012,7 +16008,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16038,16 +16034,16 @@
         <v>124</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L128" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>628</v>
-      </c>
       <c r="N128" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>42</v>
@@ -16075,11 +16071,11 @@
         <v>138</v>
       </c>
       <c r="X128" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Y128" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="Y128" t="s" s="2">
-        <v>557</v>
-      </c>
       <c r="Z128" t="s" s="2">
         <v>42</v>
       </c>
@@ -16096,7 +16092,7 @@
         <v>42</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -16122,7 +16118,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16148,16 +16144,16 @@
         <v>124</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="M129" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>42</v>
@@ -16185,11 +16181,11 @@
         <v>138</v>
       </c>
       <c r="X129" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="Y129" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="Y129" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="Z129" t="s" s="2">
         <v>42</v>
       </c>
@@ -16206,7 +16202,7 @@
         <v>42</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>40</v>
@@ -16232,7 +16228,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16255,17 +16251,17 @@
         <v>42</v>
       </c>
       <c r="J130" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="K130" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="K130" t="s" s="2">
+      <c r="L130" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>42</v>
@@ -16314,7 +16310,7 @@
         <v>42</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
@@ -16340,7 +16336,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16363,17 +16359,17 @@
         <v>42</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="K131" t="s" s="2">
+      <c r="L131" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>42</v>
@@ -16422,7 +16418,7 @@
         <v>42</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>40</v>
@@ -16448,7 +16444,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16471,19 +16467,19 @@
         <v>42</v>
       </c>
       <c r="J132" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="K132" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="K132" t="s" s="2">
+      <c r="L132" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="M132" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="M132" t="s" s="2">
+      <c r="N132" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>42</v>
@@ -16532,7 +16528,7 @@
         <v>42</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
@@ -16558,7 +16554,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16581,19 +16577,19 @@
         <v>42</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>42</v>
@@ -16642,7 +16638,7 @@
         <v>42</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -16668,7 +16664,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16691,17 +16687,17 @@
         <v>42</v>
       </c>
       <c r="J134" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K134" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="K134" t="s" s="2">
+      <c r="L134" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>42</v>
@@ -16750,7 +16746,7 @@
         <v>42</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
@@ -16776,7 +16772,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16802,14 +16798,14 @@
         <v>204</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>42</v>
@@ -16858,7 +16854,7 @@
         <v>42</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -16884,7 +16880,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16907,13 +16903,13 @@
         <v>42</v>
       </c>
       <c r="J136" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K136" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K136" t="s" s="2">
+      <c r="L136" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16964,33 +16960,33 @@
         <v>42</v>
       </c>
       <c r="AE136" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL136" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17019,7 +17015,7 @@
         <v>96</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M137" t="s" s="2">
         <v>98</v>
@@ -17072,7 +17068,7 @@
         <v>42</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -17093,16 +17089,16 @@
         <v>42</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17124,10 +17120,10 @@
         <v>95</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>98</v>
@@ -17182,7 +17178,7 @@
         <v>42</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -17208,7 +17204,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17231,17 +17227,17 @@
         <v>42</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>42</v>
@@ -17290,7 +17286,7 @@
         <v>42</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>50</v>
@@ -17316,7 +17312,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17342,14 +17338,14 @@
         <v>124</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>42</v>
@@ -17377,11 +17373,11 @@
         <v>138</v>
       </c>
       <c r="X140" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Y140" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Y140" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="Z140" t="s" s="2">
         <v>42</v>
       </c>
@@ -17398,7 +17394,7 @@
         <v>42</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
@@ -17424,7 +17420,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17450,16 +17446,16 @@
         <v>124</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="M141" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>42</v>
@@ -17487,11 +17483,11 @@
         <v>138</v>
       </c>
       <c r="X141" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Y141" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Y141" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="Z141" t="s" s="2">
         <v>42</v>
       </c>
@@ -17508,7 +17504,7 @@
         <v>42</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>40</v>
@@ -17534,7 +17530,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17560,16 +17556,16 @@
         <v>124</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L142" t="s" s="2">
+      <c r="M142" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>42</v>
@@ -17597,11 +17593,11 @@
         <v>138</v>
       </c>
       <c r="X142" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Y142" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="Y142" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="Z142" t="s" s="2">
         <v>42</v>
       </c>
@@ -17618,7 +17614,7 @@
         <v>42</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>50</v>
@@ -17644,7 +17640,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17670,16 +17666,16 @@
         <v>124</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L143" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>628</v>
-      </c>
       <c r="N143" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>42</v>
@@ -17707,11 +17703,11 @@
         <v>138</v>
       </c>
       <c r="X143" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Y143" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="Y143" t="s" s="2">
-        <v>557</v>
-      </c>
       <c r="Z143" t="s" s="2">
         <v>42</v>
       </c>
@@ -17728,7 +17724,7 @@
         <v>42</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -17754,7 +17750,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17780,16 +17776,16 @@
         <v>124</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="M144" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>42</v>
@@ -17817,11 +17813,11 @@
         <v>138</v>
       </c>
       <c r="X144" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="Y144" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="Y144" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="Z144" t="s" s="2">
         <v>42</v>
       </c>
@@ -17838,7 +17834,7 @@
         <v>42</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -17864,7 +17860,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17887,17 +17883,17 @@
         <v>42</v>
       </c>
       <c r="J145" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="K145" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="K145" t="s" s="2">
+      <c r="L145" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>42</v>
@@ -17946,7 +17942,7 @@
         <v>42</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
@@ -17972,7 +17968,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17995,17 +17991,17 @@
         <v>42</v>
       </c>
       <c r="J146" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="K146" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="K146" t="s" s="2">
+      <c r="L146" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>42</v>
@@ -18054,7 +18050,7 @@
         <v>42</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>40</v>
@@ -18080,7 +18076,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18103,19 +18099,19 @@
         <v>42</v>
       </c>
       <c r="J147" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="K147" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="K147" t="s" s="2">
+      <c r="L147" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>42</v>
@@ -18164,7 +18160,7 @@
         <v>42</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>40</v>
@@ -18190,7 +18186,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18213,19 +18209,19 @@
         <v>42</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="L148" t="s" s="2">
+      <c r="M148" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="N148" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>42</v>
@@ -18274,7 +18270,7 @@
         <v>42</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>40</v>
@@ -18300,7 +18296,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18323,17 +18319,17 @@
         <v>42</v>
       </c>
       <c r="J149" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K149" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="K149" t="s" s="2">
+      <c r="L149" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>42</v>
@@ -18382,7 +18378,7 @@
         <v>42</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>40</v>
@@ -18408,7 +18404,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18431,17 +18427,17 @@
         <v>42</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>42</v>
@@ -18490,7 +18486,7 @@
         <v>42</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>40</v>
